--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail5 Features.xlsx
@@ -3798,7 +3798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,29 +3809,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3852,115 +3850,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3977,72 +3965,66 @@
         <v>3.755403014887474e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5755498879230159</v>
+        <v>1.333027163445711e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9770192066999734</v>
+        <v>1.547360839303265e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.333027163445711e-06</v>
+        <v>0.01113944298557623</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.547360839303265e-06</v>
+        <v>0.155013228449968</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01113944298557623</v>
+        <v>0.02415235570413758</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.155013228449968</v>
+        <v>1.887986444416929</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02415235570413758</v>
+        <v>1.93565362743009</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.882302638820284</v>
+        <v>4.082603691017432</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.93565362743009</v>
+        <v>6.549701123704724e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.082603691017432</v>
+        <v>1023041654.777365</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.549701123704724e-17</v>
+        <v>1.159490260883882e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1023041654.777365</v>
+        <v>68.55010381350068</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.159490260883882e-07</v>
+        <v>0.000158938923650306</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>68.55010381350068</v>
+        <v>8.959843797308826</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000158938923650306</v>
+        <v>1.57279375063664</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.959843797308826</v>
+        <v>0.0127594262025605</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.57279375063664</v>
+        <v>3.17354710314666</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0127594262025605</v>
+        <v>0.960790084215801</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.17354710314666</v>
+        <v>1.49396351024133</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.960790084215801</v>
+        <v>32</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.49396351024133</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.431002974394839</v>
       </c>
     </row>
@@ -4057,72 +4039,66 @@
         <v>3.70615157633053e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6212620926571485</v>
+        <v>1.289182011988485e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9891098237844385</v>
+        <v>1.551145410649416e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.289182011988485e-06</v>
+        <v>0.009128758504835835</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.551145410649416e-06</v>
+        <v>0.1564767462683273</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.009128758504835835</v>
+        <v>0.02456732087727443</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1564767462683273</v>
+        <v>1.870617411557965</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02456732087727443</v>
+        <v>1.961062728901857</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.869336105900939</v>
+        <v>4.229592825583924</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.961062728901857</v>
+        <v>6.102373831144133e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.229592825583924</v>
+        <v>1090205536.920084</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.102373831144133e-17</v>
+        <v>1.086129956236004e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1090205536.920084</v>
+        <v>72.52964900186672</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.086129956236004e-07</v>
+        <v>0.0001292114240720463</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>72.52964900186672</v>
+        <v>8.642172193692277</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001292114240720463</v>
+        <v>1.218952568751861</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.642172193692277</v>
+        <v>0.009650431748396162</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.218952568751861</v>
+        <v>3.115826070395323</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009650431748396162</v>
+        <v>0.9583095590078029</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.115826070395323</v>
+        <v>1.47468475912139</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9583095590078029</v>
+        <v>35</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.47468475912139</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3383082561968166</v>
       </c>
     </row>
@@ -4137,72 +4113,66 @@
         <v>3.668709201986147e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6558158516355479</v>
+        <v>1.239818513276081e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9957981180548758</v>
+        <v>1.554094519703664e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.239818513276081e-06</v>
+        <v>0.006811009979595989</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.554094519703664e-06</v>
+        <v>0.1572439522657802</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.006811009979595989</v>
+        <v>0.0247706471915662</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1572439522657802</v>
+        <v>1.876685173291287</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0247706471915662</v>
+        <v>1.990789699341098</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.876752368306612</v>
+        <v>4.404277559324889</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.990789699341098</v>
+        <v>5.627902556415573e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.404277559324889</v>
+        <v>1254171387.781421</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.627902556415573e-17</v>
+        <v>9.512150891149041e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1254171387.781421</v>
+        <v>88.52386082479971</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.512150891149041e-08</v>
+        <v>0.0001313024112922179</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>88.52386082479971</v>
+        <v>9.063052635752276</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001313024112922179</v>
+        <v>1.196919896552424</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.063052635752276</v>
+        <v>0.01078503866114207</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.196919896552424</v>
+        <v>2.931889324675263</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01078503866114207</v>
+        <v>0.9587823733842187</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.931889324675263</v>
+        <v>1.474454178066364</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9587823733842187</v>
+        <v>35</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.474454178066364</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3041026512911705</v>
       </c>
     </row>
@@ -4217,72 +4187,66 @@
         <v>3.644451002871638e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6771563605973195</v>
+        <v>1.179857505947689e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9973378233159358</v>
+        <v>1.556082050277939e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.179857505947689e-06</v>
+        <v>0.003976570589704654</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.556082050277939e-06</v>
+        <v>0.1569589498746885</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.003976570589704654</v>
+        <v>0.02464971673988807</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1569589498746885</v>
+        <v>1.861374857885798</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02464971673988807</v>
+        <v>2.055494641472364</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.860906075587589</v>
+        <v>4.467674049421553</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.055494641472364</v>
+        <v>5.469315409232089e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.467674049421553</v>
+        <v>1280059119.317484</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.469315409232089e-17</v>
+        <v>9.285914392978575e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1280059119.317484</v>
+        <v>89.61754141618515</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.285914392978575e-08</v>
+        <v>0.0001327941160380785</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>89.61754141618515</v>
+        <v>8.896650213585064</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001327941160380785</v>
+        <v>1.195303354881299</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.896650213585064</v>
+        <v>0.01051070541318734</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.195303354881299</v>
+        <v>2.954164874346175</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01051070541318734</v>
+        <v>0.9593636759039778</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.954164874346175</v>
+        <v>1.47039494641193</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9593636759039778</v>
+        <v>29</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.47039494641193</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2961520673616467</v>
       </c>
     </row>
@@ -4297,72 +4261,66 @@
         <v>3.634964837905505e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6846740369902511</v>
+        <v>1.103924704952764e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9964855084887145</v>
+        <v>1.556903247841661e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.103924704952764e-06</v>
+        <v>0.0004257114188423486</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.556903247841661e-06</v>
+        <v>0.1550852588160845</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0004257114188423486</v>
+        <v>0.02404797009329936</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1550852588160845</v>
+        <v>1.860934938608775</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02404797009329936</v>
+        <v>2.108899747286532</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.859482984259709</v>
+        <v>4.302000232527128</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.108899747286532</v>
+        <v>5.898683189188171e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.302000232527128</v>
+        <v>1193253334.200375</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.898683189188171e-17</v>
+        <v>9.944467037985183e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1193253334.200375</v>
+        <v>83.98860819814796</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.944467037985183e-08</v>
+        <v>0.0001418266024761182</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>83.98860819814796</v>
+        <v>8.058566111046865</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001418266024761182</v>
+        <v>1.402076387413912</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.058566111046865</v>
+        <v>0.009210288743009724</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.402076387413912</v>
+        <v>3.098290301615406</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009210288743009724</v>
+        <v>0.9597168092372693</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.098290301615406</v>
+        <v>1.454860087574094</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9597168092372693</v>
+        <v>4</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.454860087574094</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2843951283746897</v>
       </c>
     </row>
@@ -4377,72 +4335,66 @@
         <v>3.641235762667977e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.681236672362594</v>
+        <v>1.095355987679722e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9987187187402333</v>
+        <v>1.556262936148073e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.095355987679722e-06</v>
+        <v>-0.004104411465502976</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.556262936148073e-06</v>
+        <v>0.1507401827897959</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.004104411465502976</v>
+        <v>0.0227331637035713</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1507401827897959</v>
+        <v>1.856281598745444</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0227331637035713</v>
+        <v>2.140271146132275</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.847625437710959</v>
+        <v>4.263394773930106</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.140271146132275</v>
+        <v>6.005993162322658e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.263394773930106</v>
+        <v>1190214717.22257</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.005993162322658e-17</v>
+        <v>1.000524003292732e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1190214717.22257</v>
+        <v>85.08156418668335</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.000524003292732e-07</v>
+        <v>0.0001580769340973194</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>85.08156418668335</v>
+        <v>8.507473178698147</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001580769340973194</v>
+        <v>1.554697655587402</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.507473178698147</v>
+        <v>0.01144115004887675</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.554697655587402</v>
+        <v>3.081360051367674</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01144115004887675</v>
+        <v>0.9590382693036162</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.081360051367674</v>
+        <v>1.504513717870523</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9590382693036162</v>
+        <v>4</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.504513717870523</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2866253844163492</v>
       </c>
     </row>
@@ -4819,7 +4771,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50994268336101</v>
+        <v>1.531869553575834</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.003937386499346</v>
@@ -4908,7 +4860,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.535875782045782</v>
+        <v>1.553257870691074</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.949293065136038</v>
@@ -4997,7 +4949,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576353567321886</v>
+        <v>1.590490833855129</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.867467876499683</v>
@@ -5086,7 +5038,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.634598236758094</v>
+        <v>1.669908294886019</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.910623917648546</v>
@@ -5175,7 +5127,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.670465227362595</v>
+        <v>1.701580203954453</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.7017880255277</v>
@@ -5264,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.697168029710931</v>
+        <v>1.723397386542553</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.657249686677017</v>
@@ -5353,7 +5305,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.707428586716968</v>
+        <v>1.734581162303373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.97086083108256</v>
@@ -5442,7 +5394,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.720640082870383</v>
+        <v>1.749178444976075</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.777712881226603</v>
@@ -5531,7 +5483,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.725515108245565</v>
+        <v>1.754837236967518</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.948746827991693</v>
@@ -5620,7 +5572,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.730457584438326</v>
+        <v>1.762521688506829</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.774106636729873</v>
@@ -5709,7 +5661,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.761831904633319</v>
+        <v>1.7905256416465</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.739306963517504</v>
@@ -5798,7 +5750,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.766612376666172</v>
+        <v>1.797853337420947</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.030506750287112</v>
@@ -5887,7 +5839,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.79398388992231</v>
+        <v>1.820267397829356</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.666756055299365</v>
@@ -5976,7 +5928,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.815416593437505</v>
+        <v>1.844416779462198</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.966893691122484</v>
@@ -6065,7 +6017,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.858142518369693</v>
+        <v>1.88160353310896</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.983073749724978</v>
@@ -6154,7 +6106,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.857097192224523</v>
+        <v>1.878655400488084</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.294405116287136</v>
@@ -6243,7 +6195,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.860055591926366</v>
+        <v>1.88109535427835</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.420266077045329</v>
@@ -6332,7 +6284,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.89236529388538</v>
+        <v>1.907180008146435</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.121082234539872</v>
@@ -6421,7 +6373,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.887123058202531</v>
+        <v>1.903688489743821</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.690435724151081</v>
@@ -6510,7 +6462,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.881258911662876</v>
+        <v>1.90289833716972</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.82217672445383</v>
@@ -6599,7 +6551,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.893478506023149</v>
+        <v>1.922803701804693</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.640379613813142</v>
@@ -6688,7 +6640,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.899794720785996</v>
+        <v>1.929339116260409</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.663132620114</v>
@@ -6777,7 +6729,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.890178988378879</v>
+        <v>1.917061713473523</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.775873490231227</v>
@@ -6866,7 +6818,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.902118597785936</v>
+        <v>1.927978435858397</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.469790781945753</v>
@@ -6955,7 +6907,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.900699529010759</v>
+        <v>1.925724158532822</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.298726408914127</v>
@@ -7044,7 +6996,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.898745823546183</v>
+        <v>1.925798444579791</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.14127122463373</v>
@@ -7133,7 +7085,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.892626555138958</v>
+        <v>1.916906734636968</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.859248659487628</v>
@@ -7222,7 +7174,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.895020405511884</v>
+        <v>1.921838257326006</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.253964663754624</v>
@@ -7311,7 +7263,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.89270087163688</v>
+        <v>1.922549079052214</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.870791002118989</v>
@@ -7400,7 +7352,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.895455378451426</v>
+        <v>1.928033861125493</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.993645582933438</v>
@@ -7489,7 +7441,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.909467809521032</v>
+        <v>1.94571008127897</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.530670843247028</v>
@@ -7578,7 +7530,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.903685664234252</v>
+        <v>1.941225488292793</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.203879272108302</v>
@@ -7667,7 +7619,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.897886587049687</v>
+        <v>1.932237879739341</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.126359269636305</v>
@@ -7756,7 +7708,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.907587432120742</v>
+        <v>1.939873663582675</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.072379909293281</v>
@@ -7845,7 +7797,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.912627994380927</v>
+        <v>1.941046701406016</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.829313933537119</v>
@@ -7934,7 +7886,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.905851083513332</v>
+        <v>1.936491712635732</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.767434991118292</v>
@@ -8023,7 +7975,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.904293139216575</v>
+        <v>1.932471672280091</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.225512104119343</v>
@@ -8112,7 +8064,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.910976325482014</v>
+        <v>1.941447879983125</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.965126175373019</v>
@@ -8201,7 +8153,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.91513359009388</v>
+        <v>1.94239287427919</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.603950140605868</v>
@@ -8290,7 +8242,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.92014773632111</v>
+        <v>1.946815400614546</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.841797425903906</v>
@@ -8379,7 +8331,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.916997387357305</v>
+        <v>1.942327609653493</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.065368723455057</v>
@@ -8468,7 +8420,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.918011153324524</v>
+        <v>1.942551380488605</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.951038809813672</v>
@@ -8557,7 +8509,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.891710284967848</v>
+        <v>1.919143070159637</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.397374566019067</v>
@@ -8646,7 +8598,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.887598348441124</v>
+        <v>1.912563012098001</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.349205929502349</v>
@@ -8735,7 +8687,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.885546848285823</v>
+        <v>1.906533756413016</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.284485109831051</v>
@@ -8824,7 +8776,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.876483227554396</v>
+        <v>1.893525379437775</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.228631869569082</v>
@@ -8913,7 +8865,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.873673855080064</v>
+        <v>1.890901498381069</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.325104453291686</v>
@@ -9002,7 +8954,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.840383789782437</v>
+        <v>1.855887532092767</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.113524108403854</v>
@@ -9091,7 +9043,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.835750004224292</v>
+        <v>1.836794773601371</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.980059834670584</v>
@@ -9180,7 +9132,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.794743397843054</v>
+        <v>1.811473467095505</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.782347421132957</v>
@@ -9269,7 +9221,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.795178173898317</v>
+        <v>1.801349983839097</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.072086175239454</v>
@@ -9555,7 +9507,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.493351602226675</v>
+        <v>1.474039170411759</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.793018570853883</v>
@@ -9644,7 +9596,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509783711387572</v>
+        <v>1.484023924411289</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.819224010546861</v>
@@ -9733,7 +9685,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.578416779371407</v>
+        <v>1.539032120643271</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.643168912958068</v>
@@ -9822,7 +9774,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.656802098458783</v>
+        <v>1.638653367410295</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.103265989282963</v>
@@ -9911,7 +9863,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665544629607057</v>
+        <v>1.644756531242757</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.711937681570173</v>
@@ -10000,7 +9952,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.678864525752528</v>
+        <v>1.655275563454037</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.953864401602215</v>
@@ -10089,7 +10041,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.672595151293819</v>
+        <v>1.644826849593541</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.8586858124697</v>
@@ -10178,7 +10130,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.662450730496961</v>
+        <v>1.636078746014116</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.999052228486321</v>
@@ -10267,7 +10219,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.684370871749015</v>
+        <v>1.656777661451314</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.623565062912416</v>
@@ -10356,7 +10308,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.682586689520994</v>
+        <v>1.657347939084171</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.950604584013556</v>
@@ -10445,7 +10397,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.692003179808644</v>
+        <v>1.667839334483724</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.848181494345863</v>
@@ -10534,7 +10486,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695380356277874</v>
+        <v>1.669619443955659</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.435972387531536</v>
@@ -10623,7 +10575,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.697294436881041</v>
+        <v>1.671109640930651</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.826786074275118</v>
@@ -10712,7 +10664,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.692656115146956</v>
+        <v>1.665056524717489</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.202999406437796</v>
@@ -10801,7 +10753,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.684460983714073</v>
+        <v>1.653713486045218</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.112655067588859</v>
@@ -10890,7 +10842,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671798159065492</v>
+        <v>1.642372348357314</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.94929988219928</v>
@@ -10979,7 +10931,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.667833314880711</v>
+        <v>1.637767808627417</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.882873592314067</v>
@@ -11068,7 +11020,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.66749140266213</v>
+        <v>1.63940558530798</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.067097793543892</v>
@@ -11157,7 +11109,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.656099575832729</v>
+        <v>1.623588196608398</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.948921878155768</v>
@@ -11246,7 +11198,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.661072593368577</v>
+        <v>1.630410491652443</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.030608450221098</v>
@@ -11335,7 +11287,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.665460610020084</v>
+        <v>1.628570810228185</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.927646530274401</v>
@@ -11424,7 +11376,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.677776669524977</v>
+        <v>1.643773658643505</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.068990275054478</v>
@@ -11513,7 +11465,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.691928331142634</v>
+        <v>1.655189248715232</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.073058440311389</v>
@@ -11602,7 +11554,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.679228200986153</v>
+        <v>1.644956879946534</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.075888045262983</v>
@@ -11691,7 +11643,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.662747579100227</v>
+        <v>1.631650319210565</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.926000821169468</v>
@@ -11780,7 +11732,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.657029515176822</v>
+        <v>1.625033496035955</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.163662924275564</v>
@@ -11869,7 +11821,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.665439586332426</v>
+        <v>1.633651761339493</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.897256760840637</v>
@@ -11958,7 +11910,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674543430038836</v>
+        <v>1.647422273362238</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.131329079467256</v>
@@ -12047,7 +11999,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.676559062113286</v>
+        <v>1.650131380306001</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.184258613284595</v>
@@ -12136,7 +12088,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.677138544600818</v>
+        <v>1.654981312169196</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.220314140401097</v>
@@ -12225,7 +12177,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.680087630187505</v>
+        <v>1.661462320313158</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.969368837357516</v>
@@ -12314,7 +12266,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.667346453840571</v>
+        <v>1.656377750715761</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.082995530215715</v>
@@ -12403,7 +12355,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.66442742775938</v>
+        <v>1.652905274615755</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.080869577126746</v>
@@ -12492,7 +12444,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.661603798477334</v>
+        <v>1.65935253156281</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.057669763213602</v>
@@ -12581,7 +12533,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.655901320976883</v>
+        <v>1.652465211451044</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.967707000918204</v>
@@ -12670,7 +12622,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.63146157359351</v>
+        <v>1.643349323004095</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.984503876156009</v>
@@ -12759,7 +12711,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.621301922295534</v>
+        <v>1.635389768255363</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.87953513040694</v>
@@ -12848,7 +12800,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.623458744133605</v>
+        <v>1.636523204925714</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.930253747968808</v>
@@ -12937,7 +12889,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.638997833688301</v>
+        <v>1.648712469356763</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.762464512018613</v>
@@ -13026,7 +12978,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.665288193111243</v>
+        <v>1.667625921279536</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.999292178418804</v>
@@ -13115,7 +13067,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.671626387436936</v>
+        <v>1.674214590471545</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.794916341688307</v>
@@ -13204,7 +13156,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.674191264182629</v>
+        <v>1.676341649590806</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.945778210411789</v>
@@ -13293,7 +13245,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.673527365861339</v>
+        <v>1.670712783147507</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.841726048859383</v>
@@ -13382,7 +13334,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667449355620737</v>
+        <v>1.668029898029514</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.785278181936846</v>
@@ -13471,7 +13423,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.669878018796039</v>
+        <v>1.674328629963404</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.990375908874038</v>
@@ -13560,7 +13512,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.662256360584608</v>
+        <v>1.665114014509932</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.062374752471242</v>
@@ -13649,7 +13601,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.672482538923556</v>
+        <v>1.673703345446392</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.826675441499144</v>
@@ -13738,7 +13690,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.65920395510203</v>
+        <v>1.666843080722581</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.669686396454386</v>
@@ -13827,7 +13779,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657941300019111</v>
+        <v>1.656983552484684</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.789151487148843</v>
@@ -13916,7 +13868,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.650671360151665</v>
+        <v>1.651459873502958</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.911979928298385</v>
@@ -14005,7 +13957,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.668967233850999</v>
+        <v>1.663647657844084</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.882282042472935</v>
@@ -14291,7 +14243,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.559764424642583</v>
+        <v>1.562789522104001</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.013425674309876</v>
@@ -14380,7 +14332,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.562809173008657</v>
+        <v>1.565318721115949</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.996401579483338</v>
@@ -14469,7 +14421,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.629732904248057</v>
+        <v>1.620320641434882</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.81918358108497</v>
@@ -14558,7 +14510,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.694888180548136</v>
+        <v>1.695939580253224</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.701472721463652</v>
@@ -14647,7 +14599,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.713904285972339</v>
+        <v>1.709164882544599</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.377017701729971</v>
@@ -14736,7 +14688,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.731466465523293</v>
+        <v>1.723563507460029</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.503415805171275</v>
@@ -14825,7 +14777,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.741302617437523</v>
+        <v>1.736008895147415</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.966408276119822</v>
@@ -14914,7 +14866,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.748703268848988</v>
+        <v>1.739363010252962</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.85844534786484</v>
@@ -15003,7 +14955,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.738107986830469</v>
+        <v>1.728896667134946</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.339024157002837</v>
@@ -15092,7 +15044,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.722999066206545</v>
+        <v>1.717925292188246</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.932201978872517</v>
@@ -15181,7 +15133,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.713346967762047</v>
+        <v>1.702917796266143</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.443886103156639</v>
@@ -15270,7 +15222,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.685361098081171</v>
+        <v>1.680308816689545</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.381458026667728</v>
@@ -15359,7 +15311,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.687595854032229</v>
+        <v>1.684107107343054</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.410366121538534</v>
@@ -15448,7 +15400,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.692390878919083</v>
+        <v>1.693351385989149</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.440295987496256</v>
@@ -15537,7 +15489,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.706040183540921</v>
+        <v>1.710538049282023</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.399672675967874</v>
@@ -15626,7 +15578,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.711696268381837</v>
+        <v>1.719594323778033</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.43050778074115</v>
@@ -15715,7 +15667,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.715766630726566</v>
+        <v>1.720807233857385</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.401215926988526</v>
@@ -15804,7 +15756,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.718280453490414</v>
+        <v>1.725937309612636</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.473768757820437</v>
@@ -15893,7 +15845,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.7052019208724</v>
+        <v>1.712568625623431</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.433955444418569</v>
@@ -15982,7 +15934,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.704239547750728</v>
+        <v>1.715931030905658</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.394395636817318</v>
@@ -16071,7 +16023,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.703056399684607</v>
+        <v>1.719553119621279</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.550007084553472</v>
@@ -16160,7 +16112,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.697312001245146</v>
+        <v>1.707769175931255</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.476582188328956</v>
@@ -16249,7 +16201,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.688804521616875</v>
+        <v>1.702215178675647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.495020150712541</v>
@@ -16338,7 +16290,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.686509334966975</v>
+        <v>1.700710514151669</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.375254355321641</v>
@@ -16427,7 +16379,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.691259582345225</v>
+        <v>1.699847021783912</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.441852906328212</v>
@@ -16516,7 +16468,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.716187960729617</v>
+        <v>1.721462686842858</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.59131478294254</v>
@@ -16605,7 +16557,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.732591000066041</v>
+        <v>1.739753060341476</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.871227709009126</v>
@@ -16694,7 +16646,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.737216232021382</v>
+        <v>1.742619019591551</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.166010232247082</v>
@@ -16783,7 +16735,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.730903528860611</v>
+        <v>1.734971349846619</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.832492252782859</v>
@@ -16872,7 +16824,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734900254593746</v>
+        <v>1.737045655986411</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.506212187024594</v>
@@ -16961,7 +16913,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.738981515147718</v>
+        <v>1.743607473082506</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.148877848598889</v>
@@ -17050,7 +17002,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.739818097882057</v>
+        <v>1.744731732297739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.468547482757193</v>
@@ -17139,7 +17091,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.745028804160609</v>
+        <v>1.751802049712723</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.659448642638067</v>
@@ -17228,7 +17180,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.751173072503951</v>
+        <v>1.756865427166899</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.758486564824132</v>
@@ -17317,7 +17269,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.749339858352503</v>
+        <v>1.757674879651132</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.364979549312553</v>
@@ -17406,7 +17358,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.759335762766993</v>
+        <v>1.768717618784649</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.039783294795537</v>
@@ -17495,7 +17447,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.760515311178867</v>
+        <v>1.770817883667267</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.723524834604676</v>
@@ -17584,7 +17536,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.76463164026925</v>
+        <v>1.775126623230929</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.087859775815736</v>
@@ -17673,7 +17625,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.769685130543347</v>
+        <v>1.779902686194171</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.292403787164686</v>
@@ -17762,7 +17714,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.763596241580898</v>
+        <v>1.771663235439483</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.04625188711651</v>
@@ -17851,7 +17803,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.724780660361367</v>
+        <v>1.742521114089981</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.910542656665387</v>
@@ -17940,7 +17892,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.71511245982426</v>
+        <v>1.729242960222936</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.057170832040196</v>
@@ -18029,7 +17981,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.713123597214092</v>
+        <v>1.7243754863566</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.936842674454668</v>
@@ -18118,7 +18070,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.714177487969594</v>
+        <v>1.728346117008445</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.91992804379068</v>
@@ -18207,7 +18159,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.711691632871539</v>
+        <v>1.722293625549268</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.997031288250227</v>
@@ -18296,7 +18248,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.703178112217076</v>
+        <v>1.714504763768997</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.07621446944886</v>
@@ -18385,7 +18337,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.696280566016819</v>
+        <v>1.708078382633923</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.01458616286027</v>
@@ -18474,7 +18426,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.684761608179606</v>
+        <v>1.692638827405631</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.074047926536514</v>
@@ -18563,7 +18515,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.684545999917148</v>
+        <v>1.687349082973851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.940481775529694</v>
@@ -18652,7 +18604,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.684780622700204</v>
+        <v>1.680325263879162</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.941720772726295</v>
@@ -18741,7 +18693,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.664673312505172</v>
+        <v>1.657034109672958</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.802915443284526</v>
@@ -19027,7 +18979,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.508575530793234</v>
+        <v>1.499911603449982</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.89092352221365</v>
@@ -19116,7 +19068,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.522133556957782</v>
+        <v>1.514357094515836</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.856746042885568</v>
@@ -19205,7 +19157,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584773850208804</v>
+        <v>1.567225616008391</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.736021525845697</v>
@@ -19294,7 +19246,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662417722793722</v>
+        <v>1.654738827825732</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.362143989519062</v>
@@ -19383,7 +19335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.671603948290681</v>
+        <v>1.659868625017519</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.111608474214763</v>
@@ -19472,7 +19424,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.690877844032349</v>
+        <v>1.672827003122352</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.406129352667078</v>
@@ -19561,7 +19513,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.696043484146316</v>
+        <v>1.680216331541317</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.405158978614361</v>
@@ -19650,7 +19602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.703160443547336</v>
+        <v>1.685222908134068</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.487400195059179</v>
@@ -19739,7 +19691,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.718159876465388</v>
+        <v>1.700436816710126</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.250014324795496</v>
@@ -19828,7 +19780,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.715134965134423</v>
+        <v>1.691935575472398</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.53308237404895</v>
@@ -19917,7 +19869,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.741317957971287</v>
+        <v>1.712089593509321</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.726620917288484</v>
@@ -20006,7 +19958,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736496408719743</v>
+        <v>1.71033893666225</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.646917991584743</v>
@@ -20095,7 +20047,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.747295881321898</v>
+        <v>1.719325932178506</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.075094738986315</v>
@@ -20184,7 +20136,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.752876073263917</v>
+        <v>1.726573909622152</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.018770204661296</v>
@@ -20273,7 +20225,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.760870661820704</v>
+        <v>1.735085405484793</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.88278094079789</v>
@@ -20362,7 +20314,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.754376575105418</v>
+        <v>1.730128776200357</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.737583508717086</v>
@@ -20451,7 +20403,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.751628016042494</v>
+        <v>1.719094351033541</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.203315057211407</v>
@@ -20540,7 +20492,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.75459518706606</v>
+        <v>1.719448299291807</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.495384795344117</v>
@@ -20629,7 +20581,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.754987219876779</v>
+        <v>1.715488887275731</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.435377314488878</v>
@@ -20718,7 +20670,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.762817553487433</v>
+        <v>1.724120665334339</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.14781721973061</v>
@@ -20807,7 +20759,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.772635902385035</v>
+        <v>1.731266122620543</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.157827437081196</v>
@@ -20896,7 +20848,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.774757307697924</v>
+        <v>1.73496352102237</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.885814917497819</v>
@@ -20985,7 +20937,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.768761740310239</v>
+        <v>1.729064589597563</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.098055284879363</v>
@@ -21074,7 +21026,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.764526277644458</v>
+        <v>1.725388449715283</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.954961943535257</v>
@@ -21163,7 +21115,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.759786508596608</v>
+        <v>1.722271832992073</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.824095123465552</v>
@@ -21252,7 +21204,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.767418412282695</v>
+        <v>1.724424905382422</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.175664138619481</v>
@@ -21341,7 +21293,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.766570574741665</v>
+        <v>1.720378544065684</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.041999766041047</v>
@@ -21430,7 +21382,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.769927683897251</v>
+        <v>1.724626743293047</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.734033533069322</v>
@@ -21519,7 +21471,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.770776648244071</v>
+        <v>1.71765467568733</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.877940814599456</v>
@@ -21608,7 +21560,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.76435054167084</v>
+        <v>1.714987434910328</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.04747418328292</v>
@@ -21697,7 +21649,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.779654272426547</v>
+        <v>1.730520378331349</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.152205797707666</v>
@@ -21786,7 +21738,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.778583464504024</v>
+        <v>1.739316481777588</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.8333227051286</v>
@@ -21875,7 +21827,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.77451886144851</v>
+        <v>1.73971354314339</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.750926263359764</v>
@@ -21964,7 +21916,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.771055074324818</v>
+        <v>1.740862011227641</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.874501639374387</v>
@@ -22053,7 +22005,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.776149224146384</v>
+        <v>1.7486948044407</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.021074368794904</v>
@@ -22142,7 +22094,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.767590289071411</v>
+        <v>1.741543529758995</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.850029443284478</v>
@@ -22231,7 +22183,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.764512080538486</v>
+        <v>1.737200834813529</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.346590334486111</v>
@@ -22320,7 +22272,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.769266862412555</v>
+        <v>1.741935189278521</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.935173253147192</v>
@@ -22409,7 +22361,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.773670846816637</v>
+        <v>1.747467805929272</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.09201162563352</v>
@@ -22498,7 +22450,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.782000089125491</v>
+        <v>1.749304679138063</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.603006757738732</v>
@@ -22587,7 +22539,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.776146522144542</v>
+        <v>1.750314694364361</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.25843153501039</v>
@@ -22676,7 +22628,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.780392725261161</v>
+        <v>1.756089887579592</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.092343347308139</v>
@@ -22765,7 +22717,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.76916442737085</v>
+        <v>1.74595755917378</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.727650530913335</v>
@@ -22854,7 +22806,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.770069174977886</v>
+        <v>1.751163826721186</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.363731372523369</v>
@@ -22943,7 +22895,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.759830675494155</v>
+        <v>1.743124776721656</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.812417014875387</v>
@@ -23032,7 +22984,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.747166673564288</v>
+        <v>1.728694697515875</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.867635706321289</v>
@@ -23121,7 +23073,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.738223848954028</v>
+        <v>1.713909926259672</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.337531777451989</v>
@@ -23210,7 +23162,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.732923576818117</v>
+        <v>1.697300666715149</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.744793847526651</v>
@@ -23299,7 +23251,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.728264457132318</v>
+        <v>1.690214223915718</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.668386571160469</v>
@@ -23388,7 +23340,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.718898537107358</v>
+        <v>1.671612991517118</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.70467922232107</v>
@@ -23477,7 +23429,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.723156358415075</v>
+        <v>1.670491977551312</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.427707523009944</v>
@@ -23763,7 +23715,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.452724155028684</v>
+        <v>1.433287933294633</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.882712183000251</v>
@@ -23852,7 +23804,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.460533746245381</v>
+        <v>1.438684829987058</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.844813123978301</v>
@@ -23941,7 +23893,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.536124779981422</v>
+        <v>1.500057823255309</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.661554005603886</v>
@@ -24030,7 +23982,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.581061805873807</v>
+        <v>1.560537841652921</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.628379648108148</v>
@@ -24119,7 +24071,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.59980521316226</v>
+        <v>1.573490489455547</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.656145871167921</v>
@@ -24208,7 +24160,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.601311524017548</v>
+        <v>1.579552105529496</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.806809392423426</v>
@@ -24297,7 +24249,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.59691857742723</v>
+        <v>1.575618166745038</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.757356805342605</v>
@@ -24386,7 +24338,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603669243000508</v>
+        <v>1.585604185460388</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.75596694126154</v>
@@ -24475,7 +24427,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.632936447554063</v>
+        <v>1.609965172079936</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.283306907111581</v>
@@ -24564,7 +24516,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.628819951479772</v>
+        <v>1.607871823822629</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.026416280584599</v>
@@ -24653,7 +24605,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618064530275974</v>
+        <v>1.598762870340559</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.962178605477829</v>
@@ -24742,7 +24694,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.616750334627173</v>
+        <v>1.598388833378233</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.482470348015287</v>
@@ -24831,7 +24783,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.617858587845969</v>
+        <v>1.601480668662159</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.011318484340108</v>
@@ -24920,7 +24872,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612020604604716</v>
+        <v>1.593654377516241</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.040858932961705</v>
@@ -25009,7 +24961,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.612859839506587</v>
+        <v>1.592795155131411</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.852830890212047</v>
@@ -25098,7 +25050,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.59517216653351</v>
+        <v>1.577186005476882</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.900861500762232</v>
@@ -25187,7 +25139,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.601439428133162</v>
+        <v>1.578438083204801</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.099457332518373</v>
@@ -25276,7 +25228,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606746258773242</v>
+        <v>1.584046836632285</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.768083570191654</v>
@@ -25365,7 +25317,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.604649118388432</v>
+        <v>1.577435953971598</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.021284684994535</v>
@@ -25454,7 +25406,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596705316517357</v>
+        <v>1.572428513174396</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.027521320300099</v>
@@ -25543,7 +25495,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.589904677542894</v>
+        <v>1.566559646586034</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.099021585367335</v>
@@ -25632,7 +25584,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.587098815636477</v>
+        <v>1.561025627999123</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.66475468106213</v>
@@ -25721,7 +25673,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602095963996541</v>
+        <v>1.576744128439724</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.987008251944657</v>
@@ -25810,7 +25762,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594583270526832</v>
+        <v>1.569131041324294</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.915150656813574</v>
@@ -25899,7 +25851,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590037860893694</v>
+        <v>1.557591559774481</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.024802413496188</v>
@@ -25988,7 +25940,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60048362878539</v>
+        <v>1.567958320831623</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.079137339733867</v>
@@ -26077,7 +26029,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.606532415179805</v>
+        <v>1.569553328784254</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.230539785755718</v>
@@ -26166,7 +26118,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.608787859394275</v>
+        <v>1.570038066649808</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.857895179513402</v>
@@ -26255,7 +26207,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.604654440459983</v>
+        <v>1.568500169654578</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.153929096345598</v>
@@ -26344,7 +26296,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.607853086228867</v>
+        <v>1.571915008743831</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.946564552522207</v>
@@ -26433,7 +26385,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.627123364935798</v>
+        <v>1.587101665043968</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.15656542427303</v>
@@ -26522,7 +26474,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.610643532776799</v>
+        <v>1.577953998027135</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.940739350854291</v>
@@ -26611,7 +26563,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.604979846774919</v>
+        <v>1.574734653283706</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.221178435890355</v>
@@ -26700,7 +26652,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606191727592905</v>
+        <v>1.574065805471898</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.209421636024822</v>
@@ -26789,7 +26741,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.597748643486884</v>
+        <v>1.566725629397673</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.001476066584901</v>
@@ -26878,7 +26830,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.598490363516322</v>
+        <v>1.568509020923398</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.222582489853935</v>
@@ -26967,7 +26919,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.603371113353539</v>
+        <v>1.573371988368067</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.29565584800483</v>
@@ -27056,7 +27008,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.599877667638861</v>
+        <v>1.568883094163566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.312007868244177</v>
@@ -27145,7 +27097,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607815314939912</v>
+        <v>1.575030438467648</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.022022166155322</v>
@@ -27234,7 +27186,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.629309105774382</v>
+        <v>1.596885239194605</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.172575402307956</v>
@@ -27323,7 +27275,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.630746101513685</v>
+        <v>1.597379089372459</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.02524921830622</v>
@@ -27412,7 +27364,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.64150245106676</v>
+        <v>1.611227319380724</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.301394788149844</v>
@@ -27501,7 +27453,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.644580462032328</v>
+        <v>1.612787312878191</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.283246557312154</v>
@@ -27590,7 +27542,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.643889884797816</v>
+        <v>1.615636907131065</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.201708280354251</v>
@@ -27679,7 +27631,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.649310475219423</v>
+        <v>1.62207644465218</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.380584069268929</v>
@@ -27768,7 +27720,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.63655850483423</v>
+        <v>1.612359657564544</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.932712434838774</v>
@@ -27857,7 +27809,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.642288759328117</v>
+        <v>1.614549569723278</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.637687170070464</v>
@@ -27946,7 +27898,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.631368983903846</v>
+        <v>1.605764352860557</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.931241548295257</v>
@@ -28035,7 +27987,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.640196023644343</v>
+        <v>1.613367166517598</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.192938763134148</v>
@@ -28124,7 +28076,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.653880674347552</v>
+        <v>1.624801501546402</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.506030483958658</v>
@@ -28213,7 +28165,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.65591202531003</v>
+        <v>1.625151595896619</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.323216055448887</v>
@@ -28499,7 +28451,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.405359787451532</v>
+        <v>1.406424144747994</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.98852738791466</v>
@@ -28588,7 +28540,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.430486897565302</v>
+        <v>1.432399123971781</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.88318951935562</v>
@@ -28677,7 +28629,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.480094650991575</v>
+        <v>1.482801377640892</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.819196755556255</v>
@@ -28766,7 +28718,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.517479191121291</v>
+        <v>1.539433337130439</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.307188128530081</v>
@@ -28855,7 +28807,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.546550107799804</v>
+        <v>1.565375589269208</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.366869306411596</v>
@@ -28944,7 +28896,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.575028708401513</v>
+        <v>1.590092806266973</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.472491681737622</v>
@@ -29033,7 +28985,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.588729165707558</v>
+        <v>1.603634084510615</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.436734192133047</v>
@@ -29122,7 +29074,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.5883281301341</v>
+        <v>1.60476216335656</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.373697338543062</v>
@@ -29211,7 +29163,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.626315793335543</v>
+        <v>1.636286725226269</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.3283157735189</v>
@@ -29300,7 +29252,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.669240898354258</v>
+        <v>1.672667372576523</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.893928246818087</v>
@@ -29389,7 +29341,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.71655585040164</v>
+        <v>1.716226854571935</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.067751092880733</v>
@@ -29478,7 +29430,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.722801455303079</v>
+        <v>1.719916479309915</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.048810063238508</v>
@@ -29567,7 +29519,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.747488159681394</v>
+        <v>1.744462788976875</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.061555203466984</v>
@@ -29656,7 +29608,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.761324871523622</v>
+        <v>1.767373510596841</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.11919473703218</v>
@@ -29745,7 +29697,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.792039410198997</v>
+        <v>1.790424512921716</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.041232435433598</v>
@@ -29834,7 +29786,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.793786289104379</v>
+        <v>1.79192529744693</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.210813975627142</v>
@@ -29923,7 +29875,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.791895598068412</v>
+        <v>1.790997273097099</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.210712695080764</v>
@@ -30012,7 +29964,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.816782100723378</v>
+        <v>1.806847613878016</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.432813295533547</v>
@@ -30101,7 +30053,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.817866519988902</v>
+        <v>1.806951444334278</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.354773578607929</v>
@@ -30190,7 +30142,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.819829657223599</v>
+        <v>1.821571004839075</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.342584619904903</v>
@@ -30279,7 +30231,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.820459945712127</v>
+        <v>1.823383293772952</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.782614651770634</v>
@@ -30368,7 +30320,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.815944341938568</v>
+        <v>1.821469686596534</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.363472249159052</v>
@@ -30457,7 +30409,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.825759211087565</v>
+        <v>1.831604548059794</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.581447867795247</v>
@@ -30546,7 +30498,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.835393268377006</v>
+        <v>1.844110450779417</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.280297498096783</v>
@@ -30635,7 +30587,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.83229019086103</v>
+        <v>1.844792629285602</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.661651087197127</v>
@@ -30724,7 +30676,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.828813358287353</v>
+        <v>1.845280279441835</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.200109747973601</v>
@@ -30813,7 +30765,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.832477582771794</v>
+        <v>1.848959431958639</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.568446458022445</v>
@@ -30902,7 +30854,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.840216625679198</v>
+        <v>1.854594486951588</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.473754527656645</v>
@@ -30991,7 +30943,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.834787091860556</v>
+        <v>1.84782835057269</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.735345337383004</v>
@@ -31080,7 +31032,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.830857350590737</v>
+        <v>1.842576822996749</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.590471695835513</v>
@@ -31169,7 +31121,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.830071864545859</v>
+        <v>1.848412106099396</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.50609157559214</v>
@@ -31258,7 +31210,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.819332386096137</v>
+        <v>1.84037200403005</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.494208615681309</v>
@@ -31347,7 +31299,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.811350904069558</v>
+        <v>1.836013029243135</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.571112247778495</v>
@@ -31436,7 +31388,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.815650726186599</v>
+        <v>1.840894228564369</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.82823220830641</v>
@@ -31525,7 +31477,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.814236802503904</v>
+        <v>1.832771653586239</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.988371401481193</v>
@@ -31614,7 +31566,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.805776890597714</v>
+        <v>1.824634468477643</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.992964394930834</v>
@@ -31703,7 +31655,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.811028140622226</v>
+        <v>1.830471207879663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.699889571131122</v>
@@ -31792,7 +31744,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.809690393476484</v>
+        <v>1.829339565181776</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.486528218971645</v>
@@ -31881,7 +31833,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.806565313853394</v>
+        <v>1.822941459285112</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.747663223500625</v>
@@ -31970,7 +31922,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.800365230183638</v>
+        <v>1.814806147649548</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.55741735563398</v>
@@ -32059,7 +32011,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.806534083685717</v>
+        <v>1.81397819092374</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.739027443812759</v>
@@ -32148,7 +32100,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.797580230813683</v>
+        <v>1.809338075607521</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.592087555162147</v>
@@ -32237,7 +32189,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.770652199129624</v>
+        <v>1.786963663417975</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.004110384101481</v>
@@ -32326,7 +32278,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.764116821531093</v>
+        <v>1.779446185877277</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.999667934443159</v>
@@ -32415,7 +32367,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.765437456474976</v>
+        <v>1.782291262638368</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.122907524822463</v>
@@ -32504,7 +32456,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.762825811998203</v>
+        <v>1.777708133910637</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.78157910783576</v>
@@ -32593,7 +32545,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.768281132739973</v>
+        <v>1.780950791792662</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.197249283801526</v>
@@ -32682,7 +32634,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.756183216632629</v>
+        <v>1.768029288226284</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.834439784308391</v>
@@ -32771,7 +32723,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.755965147917498</v>
+        <v>1.76201560976724</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.968331538495721</v>
@@ -32860,7 +32812,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.719932372410244</v>
+        <v>1.742125843056528</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.861046371149517</v>
@@ -32949,7 +32901,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.723253632279391</v>
+        <v>1.742318599735917</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.033805424543649</v>
